--- a/file/users.xlsx
+++ b/file/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elois_xyjy6rr\IdeaProjects\TP8_Exercice1\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elois_xyjy6rr\IdeaProjects\Projet2_interfaceGraphique\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C30545B-3AE7-4187-B960-FBE13C8AFD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88FD671-5970-4300-A056-09FDE63F4641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44B83705-CC1D-4572-924A-CCD80AFBC64A}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>login</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>password</t>
   </si>
@@ -47,9 +44,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Num</t>
-  </si>
-  <si>
     <t>eloise</t>
   </si>
   <si>
@@ -65,7 +59,16 @@
     <t>user@gmail.com</t>
   </si>
   <si>
-    <t>admin@gmail.com</t>
+    <t>clement</t>
+  </si>
+  <si>
+    <t>admin1@testjava.com</t>
+  </si>
+  <si>
+    <t>admin2@testjava.com</t>
+  </si>
+  <si>
+    <t>nom</t>
   </si>
 </sst>
 </file>
@@ -448,20 +451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9210062-E694-4FEA-B095-C99CE8CD4806}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -469,42 +473,45 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{88EE6004-BE1C-4561-A24C-5717BF3A64BD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{79B05DCD-BCFD-4682-A265-D4194473492A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{88EE6004-BE1C-4561-A24C-5717BF3A64BD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{79B05DCD-BCFD-4682-A265-D4194473492A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B2F91146-F0A3-4D15-930C-50FDC6BAFCFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
